--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1802275-C913-4530-A314-B7D1A48A3676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Doi</t>
   </si>
@@ -73,50 +80,6 @@
   </si>
   <si>
     <t>Date Accepted</t>
-  </si>
-  <si>
-    <t>Efficacy and safety of Lianhuaqingwen capsules, a repurposed Chinese herb, in patients with coronavirus disease 2019: A multicenter, prospective, randomized controlled trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease 2019 (Covid-19) has resulted in a global outbreak.
- Few existing targeted medications are available.
- Lianhuaqingwen (LH) capsule, a repurposed marketed Chinese herb product, has been proven effective for influenza.
-Purpose
-To determine the safety and efficacy of LH capsule in patients with Covid-19.
-Methods
-We did a prospective multicenter open-label randomized controlled trial on LH capsule in confirmed cases with Covid-19. Patients were randomized to receive usual treatment alone or in combination with LH capsules (4 capsules, thrice daily) for 14 days.
- The primary endpoint was the rate of symptom (fever, fatigue, coughing) recovery.
-Results
-We included 284 patients (142 each in treatment and control group) in the full-analysis set.
- The recovery rate was significantly higher in treatment group as compared with control group (91.5% vs.
- 82.4%, p = 0.022).
- The median time to symptom recovery was markedly shorter in treatment group (median: 7 vs.
- 10 days, p &amp;lt; 0.001).
- Time to recovery of fever (2 vs.
- 3 days), fatigue (3 vs.
- 6 days) and coughing (7 vs.
- 10 days) was also significantly shorter in treatment group (all p &amp;lt; 0.001).
- The rate of improvement in chest computed tomographic manifestations (83.8% vs.
- 64.1%, p &amp;lt; 0.001) and clinical cure (78.9% vs.
- 66.2%, p = 0.017) was also higher in treatment group.
- However, both groups did not differ in the rate of conversion to severe cases or viral assay findings (both p &amp;gt; 0.05).
- No serious adverse events were reported.
-Conclusion
-In light of the safety and effectiveness profiles, LH capsules could be considered to ameliorate clinical symptoms of Covid-19.
-</t>
-  </si>
-  <si>
-    <t>[Ke%Hu%NULL%1, Wei-jie%Guan%NULL%0, Ying%Bi%NULL%1, Wei%Zhang%NULL%0, Lanjuan%Li%NULL%1, Boli%Zhang%NULL%1, Qingquan%Liu%NULL%0, Yuanlin%Song%NULL%1, Xingwang%Li%NULL%2, Zhongping%Duan%NULL%1, Qingshan%Zheng%NULL%1, Zifeng%Yang%NULL%1, Jingyi%Liang%NULL%1, Mingfeng%Han%NULL%1, Lianguo%Ruan%NULL%1, Chaomin%Wu%NULL%1, Yunting%Zhang%NULL%1, Zhen-hua%Jia%NULL%1, Nan-shan%Zhong%NULL%2]</t>
-  </si>
-  <si>
-    <t>PMC7229744</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
   </si>
   <si>
     <t>1970-01-01</t>
@@ -125,26 +88,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -152,7 +117,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -162,44 +127,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -389,20 +357,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,12 +401,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2020.0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44317</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -451,61 +424,65 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44317.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>2020.0</v>
-      </c>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2EB87E36-5185-432C-B84C-A2CA65A72D07}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Doi</t>
   </si>
@@ -83,6 +83,56 @@
   </si>
   <si>
     <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of Lianhuaqingwen capsules, a repurposed Chinese herb, in patients with coronavirus disease 2019: A multicenter, prospective, randomized controlled trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease 2019 (Covid-19) has resulted in a global outbreak.
+ Few existing targeted medications are available.
+ Lianhuaqingwen (LH) capsule, a repurposed marketed Chinese herb product, has been proven effective for influenza.
+Purpose
+To determine the safety and efficacy of LH capsule in patients with Covid-19.
+Methods
+We did a prospective multicenter open-label randomized controlled trial on LH capsule in confirmed cases with Covid-19. Patients were randomized to receive usual treatment alone or in combination with LH capsules (4 capsules, thrice daily) for 14 days.
+ The primary endpoint was the rate of symptom (fever, fatigue, coughing) recovery.
+Results
+We included 284 patients (142 each in treatment and control group) in the full-analysis set.
+ The recovery rate was significantly higher in treatment group as compared with control group (91.5% vs.
+ 82.4%, p = 0.022).
+ The median time to symptom recovery was markedly shorter in treatment group (median: 7 vs.
+ 10 days, p &amp;lt; 0.001).
+ Time to recovery of fever (2 vs.
+ 3 days), fatigue (3 vs.
+ 6 days) and coughing (7 vs.
+ 10 days) was also significantly shorter in treatment group (all p &amp;lt; 0.001).
+ The rate of improvement in chest computed tomographic manifestations (83.8% vs.
+ 64.1%, p &amp;lt; 0.001) and clinical cure (78.9% vs.
+ 66.2%, p = 0.017) was also higher in treatment group.
+ However, both groups did not differ in the rate of conversion to severe cases or viral assay findings (both p &amp;gt; 0.05).
+ No serious adverse events were reported.
+Conclusion
+In light of the safety and effectiveness profiles, LH capsules could be considered to ameliorate clinical symptoms of Covid-19.
+</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1, Wei-jie%Guan%NULL%0, Ying%Bi%NULL%1, Wei%Zhang%NULL%0, Lanjuan%Li%NULL%1, Boli%Zhang%NULL%1, Qingquan%Liu%NULL%0, Yuanlin%Song%NULL%1, Xingwang%Li%NULL%1, Zhongping%Duan%NULL%1, Qingshan%Zheng%NULL%1, Zifeng%Yang%NULL%1, Jingyi%Liang%NULL%1, Mingfeng%Han%NULL%1, Lianguo%Ruan%NULL%1, Chaomin%Wu%NULL%1, Yunting%Zhang%NULL%1, Zhen-hua%Jia%NULL%1, Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7229744</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>_elsevier</t>
   </si>
 </sst>
 </file>
@@ -400,6 +450,9 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -409,22 +462,25 @@
         <v>44317</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>Doi</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>_elsevier</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,  Wei-jie%Guan%NULL%1,  Ying%Bi%NULL%1,  Wei%Zhang%NULL%1,  Lanjuan%Li%NULL%1,  Boli%Zhang%NULL%1,  Qingquan%Liu%NULL%1,  Yuanlin%Song%NULL%1,  Xingwang%Li%NULL%1,  Zhongping%Duan%NULL%1,  Qingshan%Zheng%NULL%1,  Zifeng%Yang%NULL%1,  Jingyi%Liang%NULL%1,  Mingfeng%Han%NULL%1,  Lianguo%Ruan%NULL%1,  Chaomin%Wu%NULL%1,  Yunting%Zhang%NULL%1,  Zhen-hua%Jia%NULL%1,  Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,   Wei-jie%Guan%NULL%1,   Ying%Bi%NULL%1,   Wei%Zhang%NULL%1,   Lanjuan%Li%NULL%1,   Boli%Zhang%NULL%1,   Qingquan%Liu%NULL%1,   Yuanlin%Song%NULL%1,   Xingwang%Li%NULL%1,   Zhongping%Duan%NULL%1,   Qingshan%Zheng%NULL%1,   Zifeng%Yang%NULL%1,   Jingyi%Liang%NULL%1,   Mingfeng%Han%NULL%1,   Lianguo%Ruan%NULL%1,   Chaomin%Wu%NULL%1,   Yunting%Zhang%NULL%1,   Zhen-hua%Jia%NULL%1,   Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,    Wei-jie%Guan%NULL%1,    Ying%Bi%NULL%1,    Wei%Zhang%NULL%1,    Lanjuan%Li%NULL%0,    Boli%Zhang%NULL%1,    Qingquan%Liu%NULL%1,    Yuanlin%Song%NULL%1,    Xingwang%Li%NULL%1,    Zhongping%Duan%NULL%1,    Qingshan%Zheng%NULL%1,    Zifeng%Yang%NULL%1,    Jingyi%Liang%NULL%1,    Mingfeng%Han%NULL%1,    Lianguo%Ruan%NULL%1,    Chaomin%Wu%NULL%1,    Yunting%Zhang%NULL%1,    Zhen-hua%Jia%NULL%1,    Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,     Wei-jie%Guan%NULL%1,     Ying%Bi%NULL%1,     Wei%Zhang%NULL%1,     Lanjuan%Li%NULL%1,     Boli%Zhang%NULL%1,     Qingquan%Liu%NULL%1,     Yuanlin%Song%NULL%1,     Xingwang%Li%NULL%1,     Zhongping%Duan%NULL%1,     Qingshan%Zheng%NULL%1,     Zifeng%Yang%NULL%1,     Jingyi%Liang%NULL%1,     Mingfeng%Han%NULL%1,     Lianguo%Ruan%NULL%1,     Chaomin%Wu%NULL%1,     Yunting%Zhang%NULL%1,     Zhen-hua%Jia%NULL%1,     Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,      Wei-jie%Guan%NULL%1,      Ying%Bi%NULL%1,      Wei%Zhang%NULL%1,      Lanjuan%Li%NULL%1,      Boli%Zhang%NULL%1,      Qingquan%Liu%NULL%1,      Yuanlin%Song%NULL%1,      Xingwang%Li%NULL%1,      Zhongping%Duan%NULL%1,      Qingshan%Zheng%NULL%1,      Zifeng%Yang%NULL%1,      Jingyi%Liang%NULL%1,      Mingfeng%Han%NULL%1,      Lianguo%Ruan%NULL%1,      Chaomin%Wu%NULL%1,      Yunting%Zhang%NULL%1,      Zhen-hua%Jia%NULL%1,      Nan-shan%Zhong%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -468,7 +483,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
   <si>
     <t>Doi</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,      Wei-jie%Guan%NULL%1,      Ying%Bi%NULL%1,      Wei%Zhang%NULL%1,      Lanjuan%Li%NULL%1,      Boli%Zhang%NULL%1,      Qingquan%Liu%NULL%1,      Yuanlin%Song%NULL%1,      Xingwang%Li%NULL%1,      Zhongping%Duan%NULL%1,      Qingshan%Zheng%NULL%1,      Zifeng%Yang%NULL%1,      Jingyi%Liang%NULL%1,      Mingfeng%Han%NULL%1,      Lianguo%Ruan%NULL%1,      Chaomin%Wu%NULL%1,      Yunting%Zhang%NULL%1,      Zhen-hua%Jia%NULL%1,      Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,       Wei-jie%Guan%NULL%1,       Ying%Bi%NULL%1,       Wei%Zhang%NULL%0,       Lanjuan%Li%NULL%0,       Boli%Zhang%NULL%1,       Qingquan%Liu%NULL%1,       Yuanlin%Song%NULL%1,       Xingwang%Li%NULL%0,       Zhongping%Duan%NULL%1,       Qingshan%Zheng%NULL%1,       Zifeng%Yang%NULL%1,       Jingyi%Liang%NULL%1,       Mingfeng%Han%NULL%0,       Lianguo%Ruan%NULL%1,       Chaomin%Wu%NULL%1,       Yunting%Zhang%NULL%1,       Zhen-hua%Jia%NULL%1,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,        Wei-jie%Guan%NULL%1,        Ying%Bi%NULL%1,        Wei%Zhang%NULL%0,        Lanjuan%Li%NULL%0,        Boli%Zhang%NULL%1,        Qingquan%Liu%NULL%1,        Yuanlin%Song%NULL%1,        Xingwang%Li%NULL%0,        Zhongping%Duan%NULL%1,        Qingshan%Zheng%NULL%1,        Zifeng%Yang%NULL%1,        Jingyi%Liang%NULL%1,        Mingfeng%Han%NULL%0,        Lianguo%Ruan%NULL%1,        Chaomin%Wu%NULL%1,        Yunting%Zhang%NULL%1,        Zhen-hua%Jia%NULL%1,        Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="38">
   <si>
     <t>Doi</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,        Wei-jie%Guan%NULL%1,        Ying%Bi%NULL%1,        Wei%Zhang%NULL%0,        Lanjuan%Li%NULL%0,        Boli%Zhang%NULL%1,        Qingquan%Liu%NULL%1,        Yuanlin%Song%NULL%1,        Xingwang%Li%NULL%0,        Zhongping%Duan%NULL%1,        Qingshan%Zheng%NULL%1,        Zifeng%Yang%NULL%1,        Jingyi%Liang%NULL%1,        Mingfeng%Han%NULL%0,        Lianguo%Ruan%NULL%1,        Chaomin%Wu%NULL%1,        Yunting%Zhang%NULL%1,        Zhen-hua%Jia%NULL%1,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,         Wei-jie%Guan%NULL%1,         Ying%Bi%NULL%1,         Wei%Zhang%NULL%0,         Lanjuan%Li%NULL%0,         Boli%Zhang%NULL%1,         Qingquan%Liu%NULL%1,         Yuanlin%Song%NULL%1,         Xingwang%Li%NULL%0,         Zhongping%Duan%NULL%1,         Qingshan%Zheng%NULL%1,         Zifeng%Yang%NULL%1,         Jingyi%Liang%NULL%1,         Mingfeng%Han%NULL%0,         Lianguo%Ruan%NULL%1,         Chaomin%Wu%NULL%1,         Yunting%Zhang%NULL%1,         Zhen-hua%Jia%NULL%1,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,          Wei-jie%Guan%NULL%1,          Ying%Bi%NULL%1,          Wei%Zhang%NULL%0,          Lanjuan%Li%NULL%0,          Boli%Zhang%NULL%1,          Qingquan%Liu%NULL%1,          Yuanlin%Song%NULL%1,          Xingwang%Li%NULL%0,          Zhongping%Duan%NULL%1,          Qingshan%Zheng%NULL%1,          Zifeng%Yang%NULL%1,          Jingyi%Liang%NULL%1,          Mingfeng%Han%NULL%0,          Lianguo%Ruan%NULL%1,          Chaomin%Wu%NULL%1,          Yunting%Zhang%NULL%1,          Zhen-hua%Jia%NULL%1,          Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="40">
   <si>
     <t>Doi</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,          Wei-jie%Guan%NULL%1,          Ying%Bi%NULL%1,          Wei%Zhang%NULL%0,          Lanjuan%Li%NULL%0,          Boli%Zhang%NULL%1,          Qingquan%Liu%NULL%1,          Yuanlin%Song%NULL%1,          Xingwang%Li%NULL%0,          Zhongping%Duan%NULL%1,          Qingshan%Zheng%NULL%1,          Zifeng%Yang%NULL%1,          Jingyi%Liang%NULL%1,          Mingfeng%Han%NULL%0,          Lianguo%Ruan%NULL%1,          Chaomin%Wu%NULL%1,          Yunting%Zhang%NULL%1,          Zhen-hua%Jia%NULL%1,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,           Wei-jie%Guan%NULL%1,           Ying%Bi%NULL%1,           Wei%Zhang%NULL%0,           Lanjuan%Li%NULL%0,           Boli%Zhang%NULL%1,           Qingquan%Liu%NULL%1,           Yuanlin%Song%NULL%1,           Xingwang%Li%NULL%0,           Zhongping%Duan%NULL%1,           Qingshan%Zheng%NULL%1,           Zifeng%Yang%NULL%1,           Jingyi%Liang%NULL%1,           Mingfeng%Han%NULL%0,           Lianguo%Ruan%NULL%1,           Chaomin%Wu%NULL%1,           Yunting%Zhang%NULL%1,           Zhen-hua%Jia%NULL%1,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,            Wei-jie%Guan%NULL%1,            Ying%Bi%NULL%1,            Wei%Zhang%NULL%0,            Lanjuan%Li%NULL%0,            Boli%Zhang%NULL%1,            Qingquan%Liu%NULL%1,            Yuanlin%Song%NULL%1,            Xingwang%Li%NULL%0,            Zhongping%Duan%NULL%1,            Qingshan%Zheng%NULL%1,            Zifeng%Yang%NULL%1,            Jingyi%Liang%NULL%1,            Mingfeng%Han%NULL%0,            Lianguo%Ruan%NULL%1,            Chaomin%Wu%NULL%1,            Yunting%Zhang%NULL%1,            Zhen-hua%Jia%NULL%1,            Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="41">
   <si>
     <t>Doi</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,            Wei-jie%Guan%NULL%1,            Ying%Bi%NULL%1,            Wei%Zhang%NULL%0,            Lanjuan%Li%NULL%0,            Boli%Zhang%NULL%1,            Qingquan%Liu%NULL%1,            Yuanlin%Song%NULL%1,            Xingwang%Li%NULL%0,            Zhongping%Duan%NULL%1,            Qingshan%Zheng%NULL%1,            Zifeng%Yang%NULL%1,            Jingyi%Liang%NULL%1,            Mingfeng%Han%NULL%0,            Lianguo%Ruan%NULL%1,            Chaomin%Wu%NULL%1,            Yunting%Zhang%NULL%1,            Zhen-hua%Jia%NULL%1,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,             Wei-jie%Guan%NULL%1,             Ying%Bi%NULL%1,             Wei%Zhang%NULL%0,             Lanjuan%Li%NULL%0,             Boli%Zhang%NULL%1,             Qingquan%Liu%NULL%1,             Yuanlin%Song%NULL%1,             Xingwang%Li%NULL%0,             Zhongping%Duan%NULL%1,             Qingshan%Zheng%NULL%1,             Zifeng%Yang%NULL%1,             Jingyi%Liang%NULL%1,             Mingfeng%Han%NULL%0,             Lianguo%Ruan%NULL%1,             Chaomin%Wu%NULL%1,             Yunting%Zhang%NULL%1,             Zhen-hua%Jia%NULL%1,             Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="42">
   <si>
     <t>Doi</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,             Wei-jie%Guan%NULL%1,             Ying%Bi%NULL%1,             Wei%Zhang%NULL%0,             Lanjuan%Li%NULL%0,             Boli%Zhang%NULL%1,             Qingquan%Liu%NULL%1,             Yuanlin%Song%NULL%1,             Xingwang%Li%NULL%0,             Zhongping%Duan%NULL%1,             Qingshan%Zheng%NULL%1,             Zifeng%Yang%NULL%1,             Jingyi%Liang%NULL%1,             Mingfeng%Han%NULL%0,             Lianguo%Ruan%NULL%1,             Chaomin%Wu%NULL%1,             Yunting%Zhang%NULL%1,             Zhen-hua%Jia%NULL%1,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,              Wei-jie%Guan%NULL%1,              Ying%Bi%NULL%1,              Wei%Zhang%NULL%0,              Lanjuan%Li%NULL%0,              Boli%Zhang%NULL%1,              Qingquan%Liu%NULL%1,              Yuanlin%Song%NULL%1,              Xingwang%Li%NULL%0,              Zhongping%Duan%NULL%1,              Qingshan%Zheng%NULL%1,              Zifeng%Yang%NULL%1,              Jingyi%Liang%NULL%1,              Mingfeng%Han%NULL%0,              Lianguo%Ruan%NULL%1,              Chaomin%Wu%NULL%1,              Yunting%Zhang%NULL%1,              Zhen-hua%Jia%NULL%1,              Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="44">
   <si>
     <t>Doi</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,              Wei-jie%Guan%NULL%1,              Ying%Bi%NULL%1,              Wei%Zhang%NULL%0,              Lanjuan%Li%NULL%0,              Boli%Zhang%NULL%1,              Qingquan%Liu%NULL%1,              Yuanlin%Song%NULL%1,              Xingwang%Li%NULL%0,              Zhongping%Duan%NULL%1,              Qingshan%Zheng%NULL%1,              Zifeng%Yang%NULL%1,              Jingyi%Liang%NULL%1,              Mingfeng%Han%NULL%0,              Lianguo%Ruan%NULL%1,              Chaomin%Wu%NULL%1,              Yunting%Zhang%NULL%1,              Zhen-hua%Jia%NULL%1,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,               Wei-jie%Guan%NULL%1,               Ying%Bi%NULL%1,               Wei%Zhang%NULL%0,               Lanjuan%Li%NULL%0,               Boli%Zhang%NULL%1,               Qingquan%Liu%NULL%1,               Yuanlin%Song%NULL%1,               Xingwang%Li%NULL%0,               Zhongping%Duan%NULL%1,               Qingshan%Zheng%NULL%1,               Zifeng%Yang%NULL%1,               Jingyi%Liang%NULL%1,               Mingfeng%Han%NULL%0,               Lianguo%Ruan%NULL%1,               Chaomin%Wu%NULL%1,               Yunting%Zhang%NULL%1,               Zhen-hua%Jia%NULL%1,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                Wei-jie%Guan%NULL%1,                Ying%Bi%NULL%1,                Wei%Zhang%NULL%0,                Lanjuan%Li%NULL%0,                Boli%Zhang%NULL%1,                Qingquan%Liu%NULL%1,                Yuanlin%Song%NULL%1,                Xingwang%Li%NULL%0,                Zhongping%Duan%NULL%1,                Qingshan%Zheng%NULL%1,                Zifeng%Yang%NULL%1,                Jingyi%Liang%NULL%1,                Mingfeng%Han%NULL%0,                Lianguo%Ruan%NULL%1,                Chaomin%Wu%NULL%1,                Yunting%Zhang%NULL%1,                Zhen-hua%Jia%NULL%1,                Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="45">
   <si>
     <t>Doi</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,                Wei-jie%Guan%NULL%1,                Ying%Bi%NULL%1,                Wei%Zhang%NULL%0,                Lanjuan%Li%NULL%0,                Boli%Zhang%NULL%1,                Qingquan%Liu%NULL%1,                Yuanlin%Song%NULL%1,                Xingwang%Li%NULL%0,                Zhongping%Duan%NULL%1,                Qingshan%Zheng%NULL%1,                Zifeng%Yang%NULL%1,                Jingyi%Liang%NULL%1,                Mingfeng%Han%NULL%0,                Lianguo%Ruan%NULL%1,                Chaomin%Wu%NULL%1,                Yunting%Zhang%NULL%1,                Zhen-hua%Jia%NULL%1,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                 Wei-jie%Guan%NULL%1,                 Ying%Bi%NULL%1,                 Wei%Zhang%NULL%0,                 Lanjuan%Li%NULL%0,                 Boli%Zhang%NULL%1,                 Qingquan%Liu%NULL%1,                 Yuanlin%Song%NULL%1,                 Xingwang%Li%NULL%0,                 Zhongping%Duan%NULL%1,                 Qingshan%Zheng%NULL%1,                 Zifeng%Yang%NULL%1,                 Jingyi%Liang%NULL%1,                 Mingfeng%Han%NULL%0,                 Lianguo%Ruan%NULL%1,                 Chaomin%Wu%NULL%1,                 Yunting%Zhang%NULL%1,                 Zhen-hua%Jia%NULL%1,                 Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
   <si>
     <t>Doi</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,                 Wei-jie%Guan%NULL%1,                 Ying%Bi%NULL%1,                 Wei%Zhang%NULL%0,                 Lanjuan%Li%NULL%0,                 Boli%Zhang%NULL%1,                 Qingquan%Liu%NULL%1,                 Yuanlin%Song%NULL%1,                 Xingwang%Li%NULL%0,                 Zhongping%Duan%NULL%1,                 Qingshan%Zheng%NULL%1,                 Zifeng%Yang%NULL%1,                 Jingyi%Liang%NULL%1,                 Mingfeng%Han%NULL%0,                 Lianguo%Ruan%NULL%1,                 Chaomin%Wu%NULL%1,                 Yunting%Zhang%NULL%1,                 Zhen-hua%Jia%NULL%1,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                  Wei-jie%Guan%NULL%1,                  Ying%Bi%NULL%1,                  Wei%Zhang%NULL%0,                  Lanjuan%Li%NULL%0,                  Boli%Zhang%NULL%1,                  Qingquan%Liu%NULL%1,                  Yuanlin%Song%NULL%1,                  Xingwang%Li%NULL%0,                  Zhongping%Duan%NULL%1,                  Qingshan%Zheng%NULL%1,                  Zifeng%Yang%NULL%1,                  Jingyi%Liang%NULL%1,                  Mingfeng%Han%NULL%0,                  Lianguo%Ruan%NULL%1,                  Chaomin%Wu%NULL%1,                  Yunting%Zhang%NULL%1,                  Zhen-hua%Jia%NULL%1,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>_elsevier_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -528,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
   <si>
     <t>Doi</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                   Wei-jie%Guan%NULL%1,                   Ying%Bi%NULL%1,                   Wei%Zhang%NULL%0,                   Lanjuan%Li%NULL%0,                   Boli%Zhang%NULL%1,                   Qingquan%Liu%NULL%1,                   Yuanlin%Song%NULL%1,                   Xingwang%Li%NULL%0,                   Zhongping%Duan%NULL%1,                   Qingshan%Zheng%NULL%1,                   Zifeng%Yang%NULL%1,                   Jingyi%Liang%NULL%1,                   Mingfeng%Han%NULL%0,                   Lianguo%Ruan%NULL%1,                   Chaomin%Wu%NULL%1,                   Yunting%Zhang%NULL%1,                   Zhen-hua%Jia%NULL%1,                   Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="55">
   <si>
     <t>Doi</t>
   </si>
@@ -190,6 +190,27 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,                   Wei-jie%Guan%NULL%1,                   Ying%Bi%NULL%1,                   Wei%Zhang%NULL%0,                   Lanjuan%Li%NULL%0,                   Boli%Zhang%NULL%1,                   Qingquan%Liu%NULL%1,                   Yuanlin%Song%NULL%1,                   Xingwang%Li%NULL%0,                   Zhongping%Duan%NULL%1,                   Qingshan%Zheng%NULL%1,                   Zifeng%Yang%NULL%1,                   Jingyi%Liang%NULL%1,                   Mingfeng%Han%NULL%0,                   Lianguo%Ruan%NULL%1,                   Chaomin%Wu%NULL%1,                   Yunting%Zhang%NULL%1,                   Zhen-hua%Jia%NULL%1,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                    Wei-jie%Guan%NULL%1,                    Ying%Bi%NULL%1,                    Wei%Zhang%NULL%0,                    Lanjuan%Li%NULL%0,                    Boli%Zhang%NULL%1,                    Qingquan%Liu%NULL%1,                    Yuanlin%Song%NULL%1,                    Xingwang%Li%NULL%0,                    Zhongping%Duan%NULL%1,                    Qingshan%Zheng%NULL%1,                    Zifeng%Yang%NULL%1,                    Jingyi%Liang%NULL%1,                    Mingfeng%Han%NULL%0,                    Lianguo%Ruan%NULL%1,                    Chaomin%Wu%NULL%1,                    Yunting%Zhang%NULL%1,                    Zhen-hua%Jia%NULL%1,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                     Wei-jie%Guan%NULL%1,                     Ying%Bi%NULL%1,                     Wei%Zhang%NULL%0,                     Lanjuan%Li%NULL%0,                     Boli%Zhang%NULL%1,                     Qingquan%Liu%NULL%1,                     Yuanlin%Song%NULL%1,                     Xingwang%Li%NULL%0,                     Zhongping%Duan%NULL%1,                     Qingshan%Zheng%NULL%1,                     Zifeng%Yang%NULL%1,                     Jingyi%Liang%NULL%1,                     Mingfeng%Han%NULL%0,                     Lianguo%Ruan%NULL%1,                     Chaomin%Wu%NULL%1,                     Yunting%Zhang%NULL%1,                     Zhen-hua%Jia%NULL%1,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                      Wei-jie%Guan%NULL%1,                      Ying%Bi%NULL%1,                      Wei%Zhang%NULL%0,                      Lanjuan%Li%NULL%0,                      Boli%Zhang%NULL%1,                      Qingquan%Liu%NULL%1,                      Yuanlin%Song%NULL%1,                      Xingwang%Li%NULL%0,                      Zhongping%Duan%NULL%1,                      Qingshan%Zheng%NULL%1,                      Zifeng%Yang%NULL%1,                      Jingyi%Liang%NULL%1,                      Mingfeng%Han%NULL%0,                      Lianguo%Ruan%NULL%1,                      Chaomin%Wu%NULL%1,                      Yunting%Zhang%NULL%1,                      Zhen-hua%Jia%NULL%1,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                       Wei-jie%Guan%NULL%1,                       Ying%Bi%NULL%1,                       Wei%Zhang%NULL%0,                       Lanjuan%Li%NULL%0,                       Boli%Zhang%NULL%1,                       Qingquan%Liu%NULL%1,                       Yuanlin%Song%NULL%1,                       Xingwang%Li%NULL%0,                       Zhongping%Duan%NULL%1,                       Qingshan%Zheng%NULL%1,                       Zifeng%Yang%NULL%1,                       Jingyi%Liang%NULL%1,                       Mingfeng%Han%NULL%0,                       Lianguo%Ruan%NULL%1,                       Chaomin%Wu%NULL%1,                       Yunting%Zhang%NULL%1,                       Zhen-hua%Jia%NULL%1,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                        Wei-jie%Guan%NULL%1,                        Ying%Bi%NULL%1,                        Wei%Zhang%NULL%0,                        Lanjuan%Li%NULL%0,                        Boli%Zhang%NULL%1,                        Qingquan%Liu%NULL%1,                        Yuanlin%Song%NULL%1,                        Xingwang%Li%NULL%0,                        Zhongping%Duan%NULL%1,                        Qingshan%Zheng%NULL%1,                        Zifeng%Yang%NULL%1,                        Jingyi%Liang%NULL%1,                        Mingfeng%Han%NULL%0,                        Lianguo%Ruan%NULL%1,                        Chaomin%Wu%NULL%1,                        Yunting%Zhang%NULL%1,                        Zhen-hua%Jia%NULL%1,                        Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -510,6 +531,9 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -525,7 +549,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -538,6 +562,9 @@
       </c>
       <c r="I2" t="s">
         <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Covid_19_Dataset_and_References/References/40.xlsx
+++ b/Covid_19_Dataset_and_References/References/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="57">
   <si>
     <t>Doi</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,                        Wei-jie%Guan%NULL%1,                        Ying%Bi%NULL%1,                        Wei%Zhang%NULL%0,                        Lanjuan%Li%NULL%0,                        Boli%Zhang%NULL%1,                        Qingquan%Liu%NULL%1,                        Yuanlin%Song%NULL%1,                        Xingwang%Li%NULL%0,                        Zhongping%Duan%NULL%1,                        Qingshan%Zheng%NULL%1,                        Zifeng%Yang%NULL%1,                        Jingyi%Liang%NULL%1,                        Mingfeng%Han%NULL%0,                        Lianguo%Ruan%NULL%1,                        Chaomin%Wu%NULL%1,                        Yunting%Zhang%NULL%1,                        Zhen-hua%Jia%NULL%1,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                         Wei-jie%Guan%NULL%1,                         Ying%Bi%NULL%1,                         Wei%Zhang%NULL%0,                         Lanjuan%Li%NULL%0,                         Boli%Zhang%NULL%1,                         Qingquan%Liu%NULL%1,                         Yuanlin%Song%NULL%1,                         Xingwang%Li%NULL%0,                         Zhongping%Duan%NULL%1,                         Qingshan%Zheng%NULL%1,                         Zifeng%Yang%NULL%1,                         Jingyi%Liang%NULL%1,                         Mingfeng%Han%NULL%0,                         Lianguo%Ruan%NULL%1,                         Chaomin%Wu%NULL%1,                         Yunting%Zhang%NULL%1,                         Zhen-hua%Jia%NULL%1,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                          Wei-jie%Guan%NULL%1,                          Ying%Bi%NULL%1,                          Wei%Zhang%NULL%0,                          Lanjuan%Li%NULL%0,                          Boli%Zhang%NULL%1,                          Qingquan%Liu%NULL%1,                          Yuanlin%Song%NULL%1,                          Xingwang%Li%NULL%0,                          Zhongping%Duan%NULL%1,                          Qingshan%Zheng%NULL%1,                          Zifeng%Yang%NULL%1,                          Jingyi%Liang%NULL%1,                          Mingfeng%Han%NULL%0,                          Lianguo%Ruan%NULL%1,                          Chaomin%Wu%NULL%1,                          Yunting%Zhang%NULL%1,                          Zhen-hua%Jia%NULL%1,                          Nan-shan%Zhong%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
